--- a/biology/Botanique/Max_Hirmer/Max_Hirmer.xlsx
+++ b/biology/Botanique/Max_Hirmer/Max_Hirmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Hirmer (1893-1981) est un photographe, éditeur et paléobotaniste allemand, fondateur, avec son épouse Aenne, de la maison d'édition Hirmer Verlag en 1948, spécialisée notamment dans les  livres d'art.
 </t>
@@ -511,9 +523,11 @@
           <t>Éléments biograhiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1893[1], il est le fils d'Albert Hirmer et d'Irmgard Ernstmeier-Hirmer, photographes et documentalistes[2]. Avec son épouse Aenne, il fonde la maison d'édition Hirmer Verlag en 1948[3], réputée pour ses livres d'art de haute qualité[4]. Il meurt en 1981[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1893, il est le fils d'Albert Hirmer et d'Irmgard Ernstmeier-Hirmer, photographes et documentalistes. Avec son épouse Aenne, il fonde la maison d'édition Hirmer Verlag en 1948, réputée pour ses livres d'art de haute qualité. Il meurt en 1981.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Taxon décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>genre Alsophilites M. Hirmer, 1927 †
 genre Calamariophyllum M. Hirmer, 1927 †
 genre Paradoxopteris Hirmer, 1927 †
-espèce Paradoxopteris stromeri Hirmer[5]</t>
+espèce Paradoxopteris stromeri Hirmer</t>
         </is>
       </c>
     </row>
@@ -575,9 +591,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom a été donné aux genres Hirmerella, Hirmeria et Hirmeriella.[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom a été donné aux genres Hirmerella, Hirmeria et Hirmeriella.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) M. Hirmer, Palaeobotanik, in Fortschr. d. Botanik, vol VI, Berlin, 1937</t>
         </is>
